--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T14:39:04+00:00</t>
+    <t>2022-01-31T16:29:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T16:29:45+00:00</t>
+    <t>2022-01-31T20:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T20:10:04+00:00</t>
+    <t>2022-02-11T00:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T00:28:19+00:00</t>
+    <t>2022-02-11T01:45:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T01:45:45+00:00</t>
+    <t>2022-02-13T22:11:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-13T22:11:31+00:00</t>
+    <t>2022-03-01T19:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T19:29:42+00:00</t>
+    <t>2022-03-04T23:14:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T23:14:40+00:00</t>
+    <t>2022-03-05T00:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T00:52:55+00:00</t>
+    <t>2022-03-05T01:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:03:34+00:00</t>
+    <t>2022-03-05T01:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:09:46+00:00</t>
+    <t>2022-03-18T16:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T16:50:55+00:00</t>
+    <t>2022-03-19T18:10:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:10:29+00:00</t>
+    <t>2022-03-19T18:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:27:00+00:00</t>
+    <t>2022-03-20T18:26:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T18:26:18+00:00</t>
+    <t>2022-03-20T19:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T19:00:26+00:00</t>
+    <t>2022-03-21T17:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T17:45:13+00:00</t>
+    <t>2022-03-21T18:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T18:09:33+00:00</t>
+    <t>2022-03-22T20:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:54:15+00:00</t>
+    <t>2022-03-23T00:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:01:05+00:00</t>
+    <t>2022-03-23T00:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:19:03+00:00</t>
+    <t>2022-03-23T00:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:33:43+00:00</t>
+    <t>2022-03-23T18:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T18:40:06+00:00</t>
+    <t>2022-03-23T19:11:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:11:09+00:00</t>
+    <t>2022-03-23T19:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:27:55+00:00</t>
+    <t>2022-03-23T20:20:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:20:45+00:00</t>
+    <t>2022-03-23T20:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:39:07+00:00</t>
+    <t>2022-03-23T21:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>DDCC Core Data Set Logical Model - Vaccine Status - Proof of Vaccination</t>
+    <t>DDCC Core Data Set Logical Model - Vaccination Status - Proof of Vaccination</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T21:03:35+00:00</t>
+    <t>2022-03-24T19:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Data elements for the DDCC Core Data Set - Vaccine Status - Proof of Vaccination.</t>
+    <t>Data elements for the DDCC Core Data Set - Vaccination Status - Proof of Vaccination.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -926,7 +926,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="68.625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:03:35+00:00</t>
+    <t>2022-03-24T19:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:25:05+00:00</t>
+    <t>2022-03-24T20:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:10:48+00:00</t>
+    <t>2022-03-24T20:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:26:37+00:00</t>
+    <t>2022-03-26T21:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:07:52+00:00</t>
+    <t>2022-03-26T21:44:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:44:34+00:00</t>
+    <t>2022-03-26T21:58:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:58:42+00:00</t>
+    <t>2022-03-26T22:00:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T22:00:49+00:00</t>
+    <t>2022-03-28T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T14:06:51+00:00</t>
+    <t>2022-03-28T17:18:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T17:18:58+00:00</t>
+    <t>2022-03-28T18:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T18:48:26+00:00</t>
+    <t>2022-03-28T20:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T20:08:43+00:00</t>
+    <t>2022-03-28T23:34:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:34:19+00:00</t>
+    <t>2022-03-28T23:45:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:45:02+00:00</t>
+    <t>2022-03-28T23:47:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:47:33+00:00</t>
+    <t>2022-03-29T00:49:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T00:49:23+00:00</t>
+    <t>2022-03-29T01:03:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:03:03+00:00</t>
+    <t>2022-03-29T01:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:33:50+00:00</t>
+    <t>2022-03-29T22:51:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T22:51:35+00:00</t>
+    <t>2022-03-30T04:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T04:10:02+00:00</t>
+    <t>2022-03-30T05:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:07:06+00:00</t>
+    <t>2022-03-30T05:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:24:10+00:00</t>
+    <t>2022-03-30T15:00:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:00:01+00:00</t>
+    <t>2022-03-30T20:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T20:32:02+00:00</t>
+    <t>2022-03-31T03:49:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T03:49:14+00:00</t>
+    <t>2022-03-31T04:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:31:26+00:00</t>
+    <t>2022-03-31T04:46:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:46:55+00:00</t>
+    <t>2022-03-31T06:22:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:22:16+00:00</t>
+    <t>2022-03-31T06:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:42:10+00:00</t>
+    <t>2022-04-26T17:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T17:07:52+00:00</t>
+    <t>2022-05-27T14:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T14:27:29+00:00</t>
+    <t>2022-06-01T13:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:01:08+00:00</t>
+    <t>2022-09-27T20:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -917,45 +917,45 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="42.3203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="72.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="85.515625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.51953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="42.3203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="116.96484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="62.984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="62.984375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="62.984375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="116.96875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="62.98828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="62.98828125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="62.98828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:02:38+00:00</t>
+    <t>2022-09-27T20:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:20:50+00:00</t>
+    <t>2022-09-27T20:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:30:57+00:00</t>
+    <t>2022-09-27T22:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T22:49:39+00:00</t>
+    <t>2022-09-27T23:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:00:34+00:00</t>
+    <t>2022-09-27T23:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:08:58+00:00</t>
+    <t>2022-10-27T10:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="235">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T10:56:05+00:00</t>
+    <t>2022-11-23T04:23:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -313,6 +313,85 @@
     <t>Metadata associated with the certificate</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>DDCCCoreDataSet.certificate.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DDCCCoreDataSet.certificate.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>DDCCCoreDataSet.certificate.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>DDCCCoreDataSet.certificate.issuer</t>
   </si>
   <si>
@@ -366,21 +445,72 @@
     <t>Certificate validity period.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
     <t>Composition.event.period</t>
   </si>
   <si>
+    <t>DDCCCoreDataSet.certificate.period.id</t>
+  </si>
+  <si>
+    <t>DDCCCoreDataSet.certificate.period.extension</t>
+  </si>
+  <si>
     <t>DDCCCoreDataSet.certificate.period.start</t>
   </si>
   <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Starting time with inclusive boundary</t>
+  </si>
+  <si>
+    <t>The start of the period. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per-1
+</t>
+  </si>
+  <si>
+    <t>./low</t>
+  </si>
+  <si>
+    <t>DDCCCoreDataSet.certificate.period.end</t>
+  </si>
+  <si>
+    <t>End time with inclusive boundary, if not ongoing</t>
+  </si>
+  <si>
+    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
+    <t>./high</t>
+  </si>
+  <si>
     <t>Certificate valid from</t>
   </si>
   <si>
     <t>Start date of certificate validity.</t>
   </si>
   <si>
-    <t>DDCCCoreDataSet.certificate.period.end</t>
-  </si>
-  <si>
     <t>Certificate valid until</t>
   </si>
   <si>
@@ -396,8 +526,17 @@
     <t>A vaccination event.</t>
   </si>
   <si>
-    <t xml:space="preserve">who-ddcc-data-1:Manufacturer or Market Authorization Holder SHALL be present {manufacturer.exists() or maholder.exists()}
-</t>
+    <t>who-ddcc-data-1:Manufacturer or Market Authorization Holder SHALL be present {manufacturer.exists() or maholder.exists()}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+  </si>
+  <si>
+    <t>DDCCCoreDataSet.vaccination.id</t>
+  </si>
+  <si>
+    <t>DDCCCoreDataSet.vaccination.extension</t>
+  </si>
+  <si>
+    <t>DDCCCoreDataSet.vaccination.modifierExtension</t>
   </si>
   <si>
     <t>DDCCCoreDataSet.vaccination.vaccine</t>
@@ -471,10 +610,6 @@
   </si>
   <si>
     <t>DDCCCoreDataSet.vaccination.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
   </si>
   <si>
     <t>Date of vaccination</t>
@@ -907,7 +1042,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN29"/>
+  <dimension ref="A1:AN39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -916,9 +1051,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.3203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.4140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -943,7 +1078,7 @@
     <col min="25" max="25" width="85.51953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="42.3203125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1622,7 +1757,7 @@
         <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>74</v>
@@ -1642,7 +1777,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1650,7 +1785,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>79</v>
@@ -1662,10 +1797,10 @@
         <v>74</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>100</v>
@@ -1722,10 +1857,10 @@
         <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
@@ -1737,16 +1872,16 @@
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>74</v>
@@ -1758,14 +1893,14 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>74</v>
@@ -1774,18 +1909,20 @@
         <v>74</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M8" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
         <v>74</v>
@@ -1822,34 +1959,34 @@
         <v>74</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>74</v>
@@ -1866,39 +2003,43 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O9" t="s" s="2">
         <v>74</v>
       </c>
@@ -1946,22 +2087,22 @@
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
@@ -1978,7 +2119,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2001,13 +2142,13 @@
         <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2058,7 +2199,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
@@ -2076,13 +2217,13 @@
         <v>74</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>74</v>
@@ -2090,7 +2231,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2098,7 +2239,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>79</v>
@@ -2110,16 +2251,16 @@
         <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2170,10 +2311,10 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2194,7 +2335,7 @@
         <v>74</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>74</v>
@@ -2202,7 +2343,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2222,16 +2363,16 @@
         <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2282,7 +2423,7 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -2314,7 +2455,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2322,7 +2463,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>79</v>
@@ -2334,16 +2475,16 @@
         <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2394,10 +2535,10 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -2426,7 +2567,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2434,7 +2575,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>79</v>
@@ -2446,16 +2587,16 @@
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2506,10 +2647,10 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -2518,7 +2659,7 @@
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>74</v>
@@ -2530,7 +2671,7 @@
         <v>74</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>74</v>
@@ -2538,7 +2679,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2546,7 +2687,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>79</v>
@@ -2558,16 +2699,16 @@
         <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2594,11 +2735,13 @@
         <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="X15" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y15" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>74</v>
@@ -2616,10 +2759,10 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -2631,10 +2774,10 @@
         <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -2648,18 +2791,18 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>74</v>
@@ -2668,18 +2811,20 @@
         <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>74</v>
@@ -2716,37 +2861,37 @@
         <v>74</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
@@ -2760,7 +2905,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2783,15 +2928,17 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>74</v>
@@ -2840,7 +2987,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -2849,16 +2996,16 @@
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>74</v>
@@ -2872,7 +3019,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2895,20 +3042,24 @@
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="Q18" t="s" s="2">
         <v>74</v>
       </c>
@@ -2952,7 +3103,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -2961,16 +3112,16 @@
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
@@ -2984,7 +3135,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2992,7 +3143,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>79</v>
@@ -3004,16 +3155,16 @@
         <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3064,10 +3215,10 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3082,7 +3233,7 @@
         <v>74</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>74</v>
@@ -3096,7 +3247,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3104,7 +3255,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>79</v>
@@ -3116,16 +3267,16 @@
         <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3176,10 +3327,10 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3194,7 +3345,7 @@
         <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
@@ -3208,7 +3359,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3216,7 +3367,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>79</v>
@@ -3228,16 +3379,16 @@
         <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3288,10 +3439,10 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -3300,13 +3451,13 @@
         <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -3320,7 +3471,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3328,7 +3479,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>79</v>
@@ -3340,16 +3491,16 @@
         <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3400,10 +3551,10 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -3415,10 +3566,10 @@
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -3432,18 +3583,18 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>74</v>
@@ -3455,15 +3606,17 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>74</v>
@@ -3500,37 +3653,37 @@
         <v>74</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -3544,39 +3697,43 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
       </c>
@@ -3600,11 +3757,13 @@
         <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="X24" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y24" t="s" s="2">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
@@ -3622,25 +3781,25 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -3654,7 +3813,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3662,7 +3821,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>79</v>
@@ -3674,16 +3833,16 @@
         <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3710,13 +3869,11 @@
         <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>74</v>
@@ -3734,10 +3891,10 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -3774,7 +3931,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>79</v>
@@ -3786,16 +3943,16 @@
         <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3849,7 +4006,7 @@
         <v>176</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -3864,7 +4021,7 @@
         <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -3898,10 +4055,10 @@
         <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>181</v>
@@ -4010,10 +4167,10 @@
         <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>185</v>
@@ -4046,11 +4203,13 @@
         <v>74</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="X28" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y28" t="s" s="2">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>74</v>
@@ -4086,7 +4245,7 @@
         <v>74</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
@@ -4100,7 +4259,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4108,7 +4267,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>79</v>
@@ -4120,16 +4279,16 @@
         <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4180,33 +4339,1149 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN29" t="s" s="2">
+      <c r="F31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="X34" s="2"/>
+      <c r="Y34" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="X38" s="2"/>
+      <c r="Y38" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T04:23:36+00:00</t>
+    <t>2022-11-23T11:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:18:03+00:00</t>
+    <t>2022-11-23T11:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:20:15+00:00</t>
+    <t>2022-11-23T15:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T15:17:18+00:00</t>
+    <t>2022-11-28T15:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T15:39:12+00:00</t>
+    <t>2022-11-28T23:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T23:56:31+00:00</t>
+    <t>2022-11-29T11:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:57:57+00:00</t>
+    <t>2022-11-30T13:59:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:59:42+00:00</t>
+    <t>2022-11-30T15:11:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T15:11:20+00:00</t>
+    <t>2022-11-30T15:45:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-08T23:46:44+00:00</t>
+    <t>2023-01-09T00:16:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
+++ b/StructureDefinition-DDCCCoreDataSet.VS.PoV.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:19:24+00:00</t>
+    <t>2023-01-11T17:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
